--- a/ImageIndex.xlsx
+++ b/ImageIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\PycharmProjects\Mercenaries-Hearthstone-game-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E298726-5AEB-48B6-A6CE-CA189D4B3099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FF1500-1DD2-4EF2-90DE-324F9ACCBA2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="2550" windowWidth="21600" windowHeight="11325" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
+    <workbookView xWindow="7200" yWindow="2520" windowWidth="21600" windowHeight="11325" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve"> 'continue'</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>Chekers</t>
+  </si>
+  <si>
+    <t>levelstarted</t>
+  </si>
+  <si>
+    <t>reveal</t>
   </si>
 </sst>
 </file>
@@ -592,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0153548A-F93F-442E-A9F4-9B3365A470D8}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="E17" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -954,7 +963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -971,7 +980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -988,7 +997,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1005,7 +1014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1022,10 +1031,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
       <c r="C23" s="3">
         <v>21</v>
       </c>
@@ -1033,7 +1045,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1044,7 +1056,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1055,7 +1067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1066,7 +1078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" s="3">
         <v>25</v>
       </c>

--- a/ImageIndex.xlsx
+++ b/ImageIndex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\PycharmProjects\Mercenaries-Hearthstone-game-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FF1500-1DD2-4EF2-90DE-324F9ACCBA2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA2EAE0-FBD6-477F-9781-A8E0B5A7DD37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="2520" windowWidth="21600" windowHeight="11325" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t xml:space="preserve"> 'continue'</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>reveal</t>
+  </si>
+  <si>
+    <t>presents</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -598,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0153548A-F93F-442E-A9F4-9B3365A470D8}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,6 +1047,9 @@
       <c r="C23" s="3">
         <v>21</v>
       </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
       <c r="E23" s="3">
         <v>21</v>
       </c>
@@ -1048,6 +1057,9 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
       </c>
       <c r="C24" s="3">
         <v>22</v>

--- a/ImageIndex.xlsx
+++ b/ImageIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\PycharmProjects\Mercenaries-Hearthstone-game-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA2EAE0-FBD6-477F-9781-A8E0B5A7DD37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1825101-91A2-4CD0-A54B-894284E20A25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2520" windowWidth="21600" windowHeight="11325" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
+    <workbookView minimized="1" xWindow="7200" yWindow="2520" windowWidth="21600" windowHeight="11325" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t xml:space="preserve"> 'continue'</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>nextlvlcheck</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,6 +971,9 @@
       <c r="E18" s="3">
         <v>16</v>
       </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">

--- a/ImageIndex.xlsx
+++ b/ImageIndex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\PycharmProjects\Mercenaries-Hearthstone-game-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1825101-91A2-4CD0-A54B-894284E20A25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4707C196-3CDD-4033-9A19-2BF43424DC27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="7200" yWindow="2520" windowWidth="21600" windowHeight="11325" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve"> 'continue'</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>nextlvlcheck</t>
+  </si>
+  <si>
+    <t>finishok</t>
   </si>
 </sst>
 </file>
@@ -607,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0153548A-F93F-442E-A9F4-9B3365A470D8}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,6 +1081,9 @@
       <c r="A25" s="3">
         <v>23</v>
       </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
       <c r="C25" s="3">
         <v>23</v>
       </c>

--- a/ImageIndex.xlsx
+++ b/ImageIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\PycharmProjects\Mercenaries-Hearthstone-game-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4707C196-3CDD-4033-9A19-2BF43424DC27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730F0066-5E38-485C-8127-783C4B75819C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7200" yWindow="2520" windowWidth="21600" windowHeight="11325" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
+    <workbookView minimized="1" xWindow="7095" yWindow="3645" windowWidth="21600" windowHeight="11325" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t xml:space="preserve"> 'continue'</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>finishok</t>
+  </si>
+  <si>
+    <t>confirm</t>
   </si>
 </sst>
 </file>
@@ -610,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0153548A-F93F-442E-A9F4-9B3365A470D8}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,6 +1098,9 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
       <c r="C26" s="3">
         <v>24</v>
       </c>

--- a/ImageIndex.xlsx
+++ b/ImageIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\PycharmProjects\Mercenaries-Hearthstone-game-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730F0066-5E38-485C-8127-783C4B75819C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CF5479-88A5-449F-B835-854CE71C7DE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7095" yWindow="3645" windowWidth="21600" windowHeight="11325" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="96" windowWidth="23040" windowHeight="12264" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t xml:space="preserve"> 'continue'</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>confirm</t>
+  </si>
+  <si>
+    <t>travel</t>
   </si>
 </sst>
 </file>
@@ -613,19 +616,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0153548A-F93F-442E-A9F4-9B3365A470D8}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="4" t="s">
         <v>57</v>
@@ -641,7 +644,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -661,7 +664,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -681,7 +684,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -701,7 +704,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -721,7 +724,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -741,7 +744,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -761,7 +764,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -781,7 +784,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -801,7 +804,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -821,7 +824,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -841,7 +844,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -861,7 +864,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -881,7 +884,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -901,7 +904,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -921,7 +924,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -941,7 +944,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -961,7 +964,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -981,7 +984,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1049,7 +1052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1076,11 +1079,14 @@
       <c r="C24" s="3">
         <v>22</v>
       </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
       <c r="E24" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1108,7 +1114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
         <v>25</v>
       </c>

--- a/ImageIndex.xlsx
+++ b/ImageIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\PycharmProjects\Mercenaries-Hearthstone-game-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CF5479-88A5-449F-B835-854CE71C7DE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E27CD5-DE65-457B-81AD-3444FA662BDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="96" windowWidth="23040" windowHeight="12264" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="28800" windowHeight="15330" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t xml:space="preserve"> 'continue'</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>travel</t>
+  </si>
+  <si>
+    <t>startbat</t>
   </si>
 </sst>
 </file>
@@ -617,18 +620,18 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="4" t="s">
         <v>57</v>
@@ -644,7 +647,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -664,7 +667,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -684,7 +687,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -704,7 +707,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -724,7 +727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -744,7 +747,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -764,7 +767,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -784,7 +787,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -804,7 +807,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -824,7 +827,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -844,7 +847,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -864,7 +867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -884,7 +887,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -904,7 +907,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -924,7 +927,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -944,7 +947,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -964,7 +967,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -984,7 +987,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1018,7 +1021,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1086,7 +1089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1096,11 +1099,14 @@
       <c r="C25" s="3">
         <v>23</v>
       </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
       <c r="E25" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1114,7 +1120,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" s="3">
         <v>25</v>
       </c>

--- a/ImageIndex.xlsx
+++ b/ImageIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\PycharmProjects\Mercenaries-Hearthstone-game-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E27CD5-DE65-457B-81AD-3444FA662BDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBBB7BA-CF23-47B9-93DE-BF9690E21986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="28800" windowHeight="15330" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="120" windowWidth="28800" windowHeight="15330" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t xml:space="preserve"> 'continue'</t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t>startbat</t>
+  </si>
+  <si>
+    <t>cords-search</t>
+  </si>
+  <si>
+    <t>30lvl1</t>
+  </si>
+  <si>
+    <t>30lvl2</t>
   </si>
 </sst>
 </file>
@@ -295,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -303,6 +312,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,7 +630,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,6 +1013,9 @@
       <c r="E19" s="3">
         <v>17</v>
       </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -1020,6 +1033,9 @@
       <c r="E20" s="3">
         <v>18</v>
       </c>
+      <c r="F20" s="7">
+        <v>303</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1037,6 +1053,9 @@
       <c r="E21" s="3">
         <v>19</v>
       </c>
+      <c r="F21" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1054,6 +1073,9 @@
       <c r="E22" s="3">
         <v>20</v>
       </c>
+      <c r="F22" s="7" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -1071,6 +1093,7 @@
       <c r="E23" s="3">
         <v>21</v>
       </c>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">

--- a/ImageIndex.xlsx
+++ b/ImageIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\PycharmProjects\Mercenaries-Hearthstone-game-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBBB7BA-CF23-47B9-93DE-BF9690E21986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B57E0DE-6AEF-4880-92B2-0358EB2E9FBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="120" windowWidth="28800" windowHeight="15330" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
+    <workbookView xWindow="14175" yWindow="2805" windowWidth="14625" windowHeight="11655" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t xml:space="preserve"> 'continue'</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>30lvl2</t>
+  </si>
+  <si>
+    <t>menu</t>
   </si>
 </sst>
 </file>
@@ -629,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0153548A-F93F-442E-A9F4-9B3365A470D8}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,7 +1096,9 @@
       <c r="E23" s="3">
         <v>21</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">

--- a/ImageIndex.xlsx
+++ b/ImageIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\PycharmProjects\Mercenaries-Hearthstone-game-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B57E0DE-6AEF-4880-92B2-0358EB2E9FBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8890F2B6-47C8-4800-961D-CD2B4B5487EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14175" yWindow="2805" windowWidth="14625" windowHeight="11655" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
+    <workbookView minimized="1" xWindow="14175" yWindow="2820" windowWidth="14625" windowHeight="11655" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t xml:space="preserve"> 'continue'</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>menu</t>
+  </si>
+  <si>
+    <t>pick</t>
   </si>
 </sst>
 </file>
@@ -632,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0153548A-F93F-442E-A9F4-9B3365A470D8}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,6 +1147,9 @@
       <c r="C26" s="3">
         <v>24</v>
       </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
       <c r="E26" s="3">
         <v>24</v>
       </c>

--- a/ImageIndex.xlsx
+++ b/ImageIndex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\PycharmProjects\Mercenaries-Hearthstone-game-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8890F2B6-47C8-4800-961D-CD2B4B5487EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D49AA46-E2B9-4926-BB70-0A767CF9127B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="14175" yWindow="2820" windowWidth="14625" windowHeight="11655" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t xml:space="preserve"> 'continue'</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>pick</t>
+  </si>
+  <si>
+    <t>party</t>
   </si>
 </sst>
 </file>
@@ -636,7 +639,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,6 +1122,9 @@
       <c r="E24" s="3">
         <v>22</v>
       </c>
+      <c r="F24" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">

--- a/ImageIndex.xlsx
+++ b/ImageIndex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\PycharmProjects\Mercenaries-Hearthstone-game-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D49AA46-E2B9-4926-BB70-0A767CF9127B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3192C4B-51B3-4CC9-95DA-B9A2941B290D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="14175" yWindow="2820" windowWidth="14625" windowHeight="11655" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
   </bookViews>
@@ -639,7 +639,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,6 +647,7 @@
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>

--- a/ImageIndex.xlsx
+++ b/ImageIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\PycharmProjects\Mercenaries-Hearthstone-game-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3192C4B-51B3-4CC9-95DA-B9A2941B290D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A4C020-8BEB-4E45-9DA0-30BBA102AC58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="14175" yWindow="2820" windowWidth="14625" windowHeight="11655" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
+    <workbookView xWindow="30624" yWindow="2388" windowWidth="23232" windowHeight="12552" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t xml:space="preserve"> 'continue'</t>
   </si>
@@ -256,6 +256,21 @@
   </si>
   <si>
     <t>party</t>
+  </si>
+  <si>
+    <t>visit</t>
+  </si>
+  <si>
+    <t>Winterspring</t>
+  </si>
+  <si>
+    <t>Felwood</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>heroic</t>
   </si>
 </sst>
 </file>
@@ -313,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -322,6 +337,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0153548A-F93F-442E-A9F4-9B3365A470D8}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,8 +1178,41 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
       <c r="C27" s="3">
         <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="8">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="8">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="8">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/ImageIndex.xlsx
+++ b/ImageIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\PycharmProjects\Mercenaries-Hearthstone-game-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A4C020-8BEB-4E45-9DA0-30BBA102AC58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB5A7E1-F370-47F6-8E32-75D811557C60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30624" yWindow="2388" windowWidth="23232" windowHeight="12552" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
+    <workbookView minimized="1" xWindow="-12504" yWindow="1320" windowWidth="21600" windowHeight="11328" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t xml:space="preserve"> 'continue'</t>
   </si>
@@ -271,13 +271,34 @@
   </si>
   <si>
     <t>heroic</t>
+  </si>
+  <si>
+    <t>fir</t>
+  </si>
+  <si>
+    <t>'replace_grey'</t>
+  </si>
+  <si>
+    <t>'presents3'</t>
+  </si>
+  <si>
+    <t>presents_thing'</t>
+  </si>
+  <si>
+    <t>'replace'</t>
+  </si>
+  <si>
+    <t>keep'</t>
+  </si>
+  <si>
+    <t>lose</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +312,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -328,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -338,6 +365,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,13 +682,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0153548A-F93F-442E-A9F4-9B3365A470D8}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -667,7 +697,7 @@
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="5"/>
       <c r="B1" s="4" t="s">
         <v>57</v>
@@ -683,7 +713,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -703,7 +733,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -723,7 +753,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -743,7 +773,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -763,7 +793,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -783,7 +813,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -803,7 +833,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -823,7 +853,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -843,7 +873,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -863,7 +893,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -883,7 +913,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -903,7 +933,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -923,7 +953,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -943,7 +973,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -963,7 +993,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -983,7 +1013,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1003,7 +1033,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1023,7 +1053,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1043,7 +1073,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1063,7 +1093,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1083,7 +1113,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1103,7 +1133,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1123,7 +1153,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1143,7 +1173,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1159,8 +1189,11 @@
       <c r="E25" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1177,7 +1210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -1191,7 +1224,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
+      <c r="A28" s="8">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
       <c r="C28" s="8">
         <v>26</v>
       </c>
@@ -1199,7 +1238,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
+      <c r="A29" s="8">
+        <v>27</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="C29" s="8">
         <v>27</v>
       </c>
@@ -1207,12 +1252,42 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
+      <c r="A30" s="8">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
       <c r="C30" s="8">
         <v>28</v>
       </c>
       <c r="D30" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="C31" s="8">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="C32" s="8">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="8">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/ImageIndex.xlsx
+++ b/ImageIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\PycharmProjects\Mercenaries-Hearthstone-game-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB5A7E1-F370-47F6-8E32-75D811557C60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FCEAD5-705E-46FE-9C2D-BB71B7A04F14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-12504" yWindow="1320" windowWidth="21600" windowHeight="11328" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
+    <workbookView xWindow="3840" yWindow="2910" windowWidth="21600" windowHeight="11325" xr2:uid="{F6B23E98-3404-4A1A-B6BD-EC022861F775}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0153548A-F93F-442E-A9F4-9B3365A470D8}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
